--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -1,28 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eedac214b316affd/HEIG/ASD2/Labos/ASD2_labo04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dname\OneDrive\HEIG\ASD2\Labos\ASD2_labo04\ASD2_labo4_Hash\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="134" documentId="8E41A4E84DF28C57955049DD6F4D510DF2C88C2C" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{068F3B9A-05F1-47C7-AC11-3B9A18848E2A}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="20790" windowHeight="8415"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="20790" windowHeight="8415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="stats" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="3" r:id="rId2"/>
+    <sheet name="stats" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">stats!$A$2:$A$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">stats!$A$2:$A$74</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
+  <pivotCaches>
+    <pivotCache cacheId="10" r:id="rId4"/>
+    <pivotCache cacheId="31" r:id="rId5"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="24">
   <si>
     <t>12DirectoryInt</t>
   </si>
@@ -46,9 +53,6 @@
   </si>
   <si>
     <t>13DirectoryCity</t>
-  </si>
-  <si>
-    <t>19DirectoryWithoutAVS</t>
   </si>
   <si>
     <t>NomFichier</t>
@@ -92,11 +96,17 @@
   <si>
     <t>search average</t>
   </si>
+  <si>
+    <t>(vide)</t>
+  </si>
+  <si>
+    <t>Somme de search average</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -574,8 +584,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -647,8 +659,37 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Stats.xlsx]Feuil1!Tableau croisé dynamique7</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Somme de search average par NomFichier</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -679,10 +720,27 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -690,11 +748,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>stats!$D$1</c:f>
+              <c:f>Feuil1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>insertion duration total</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -709,150 +767,77 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12DirectoryInt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12DirectoryPolILj2EE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12DirectoryPolILj31EE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12DirectoryPolILj37EE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12DirectoryStl</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13DirectoryCity</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13DirectoryLong</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15DirectorySha256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>(vide)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>stats!$D$2:$D$10</c:f>
+              <c:f>Feuil1!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>31250</c:v>
+                  <c:v>9.3751999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15627</c:v>
+                  <c:v>6.2501999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31251</c:v>
+                  <c:v>14.061900000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46875</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46877</c:v>
+                  <c:v>9.3749000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31252</c:v>
+                  <c:v>4.6875999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62501</c:v>
+                  <c:v>10.937799999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15625</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15626</c:v>
+                  <c:v>26.563399999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B9D7-40BD-A8BA-F28A86D8C12F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>stats!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NomFichier</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>stats!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B9D7-40BD-A8BA-F28A86D8C12F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>stats!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>12DirectoryInt</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>stats!$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B9D7-40BD-A8BA-F28A86D8C12F}"/>
+              <c16:uniqueId val="{00000000-84CC-4B0E-9F65-21B2B4B6C675}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -864,18 +849,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="533135192"/>
-        <c:axId val="533138472"/>
+        <c:gapWidth val="182"/>
+        <c:axId val="535593424"/>
+        <c:axId val="535592112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="533135192"/>
+        <c:axId val="535593424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -912,7 +897,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533138472"/>
+        <c:crossAx val="535592112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -920,12 +905,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="533138472"/>
+        <c:axId val="535592112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -971,7 +956,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533135192"/>
+        <c:crossAx val="535593424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -983,46 +968,8 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1055,6 +1002,560 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Stats.xlsx]Feuil2!Tableau croisé dynamique20</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Search Average en fonction du load factor pour Sha256</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Feuil2!$A$2:$B$10</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.9</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>15DirectorySha256</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil2!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.6877000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1248999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6877000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5626</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6875999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5626</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5626</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BCDD-4EBF-914C-394DD1D6E520}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="604166560"/>
+        <c:axId val="604163608"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="604166560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Load</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Factor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="604163608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="604163608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Temps</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> de recherche [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="604166560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -1098,8 +1599,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1303,22 +1844,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1423,8 +1965,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1556,19 +2098,525 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1605,23 +2653,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1552574</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graphique 2">
+        <xdr:cNvPr id="2" name="Graphique 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3326318E-2DB6-4A2F-AF31-E404ADDF9B44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D2F8D55-DA73-48D8-B1D4-990DE898ED12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1640,6 +2688,2963 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE668F2C-9691-4F18-AA58-76EB9A2D38FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Adrien Allemand" refreshedDate="43086.482542361111" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="73" xr:uid="{760EA99D-604E-4D8C-9279-504AA92E3300}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tableau1"/>
+  </cacheSource>
+  <cacheFields count="14">
+    <cacheField name="NomFichier" numFmtId="0">
+      <sharedItems containsBlank="1" count="9">
+        <s v="12DirectoryInt"/>
+        <s v="12DirectoryPolILj2EE"/>
+        <s v="12DirectoryPolILj31EE"/>
+        <s v="12DirectoryPolILj37EE"/>
+        <s v="12DirectoryStl"/>
+        <s v="13DirectoryCity"/>
+        <s v="13DirectoryLong"/>
+        <s v="15DirectorySha256"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="MaxLoadFactor" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.1" maxValue="0.9"/>
+    </cacheField>
+    <cacheField name="insertins total" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="10000" maxValue="10000"/>
+    </cacheField>
+    <cacheField name="insertion duration total" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="62501"/>
+    </cacheField>
+    <cacheField name="insertion duration average" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="6.2500999999999998"/>
+    </cacheField>
+    <cacheField name="buckets" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="15173" maxValue="126271"/>
+    </cacheField>
+    <cacheField name="collision" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="358" maxValue="2763"/>
+    </cacheField>
+    <cacheField name="empty buckets" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="7800" maxValue="118119"/>
+    </cacheField>
+    <cacheField name="largest buckets" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="7"/>
+    </cacheField>
+    <cacheField name="smallest bucket" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="search total" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="10000" maxValue="10000"/>
+    </cacheField>
+    <cacheField name="found total" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="10000" maxValue="10000"/>
+    </cacheField>
+    <cacheField name="search duration" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="46877"/>
+    </cacheField>
+    <cacheField name="search average" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="4.6877000000000004"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Adrien Allemand" refreshedDate="43086.483745486112" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="73" xr:uid="{919BDD88-845C-45E4-95B1-89CF1F63EEB8}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tableau1"/>
+  </cacheSource>
+  <cacheFields count="14">
+    <cacheField name="NomFichier" numFmtId="0">
+      <sharedItems containsBlank="1" count="9">
+        <s v="12DirectoryInt"/>
+        <s v="12DirectoryPolILj2EE"/>
+        <s v="12DirectoryPolILj31EE"/>
+        <s v="12DirectoryPolILj37EE"/>
+        <s v="12DirectoryStl"/>
+        <s v="13DirectoryCity"/>
+        <s v="13DirectoryLong"/>
+        <s v="15DirectorySha256"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="MaxLoadFactor" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.1" maxValue="0.9" count="10">
+        <n v="0.1"/>
+        <n v="0.2"/>
+        <n v="0.3"/>
+        <n v="0.4"/>
+        <n v="0.5"/>
+        <n v="0.6"/>
+        <n v="0.7"/>
+        <n v="0.8"/>
+        <n v="0.9"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="insertins total" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="10000" maxValue="10000"/>
+    </cacheField>
+    <cacheField name="insertion duration total" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="62501"/>
+    </cacheField>
+    <cacheField name="insertion duration average" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="6.2500999999999998"/>
+    </cacheField>
+    <cacheField name="buckets" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="15173" maxValue="126271"/>
+    </cacheField>
+    <cacheField name="collision" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="358" maxValue="2763"/>
+    </cacheField>
+    <cacheField name="empty buckets" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="7800" maxValue="118119"/>
+    </cacheField>
+    <cacheField name="largest buckets" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="7"/>
+    </cacheField>
+    <cacheField name="smallest bucket" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="search total" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="10000" maxValue="10000"/>
+    </cacheField>
+    <cacheField name="found total" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="10000" maxValue="10000"/>
+    </cacheField>
+    <cacheField name="search duration" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="46877"/>
+    </cacheField>
+    <cacheField name="search average" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="4.6877000000000004" count="16">
+        <n v="1.5625"/>
+        <n v="0"/>
+        <n v="3.1251000000000002"/>
+        <n v="3.125"/>
+        <n v="1.5626"/>
+        <n v="1.5624"/>
+        <n v="1.5621"/>
+        <n v="3.1248999999999998"/>
+        <n v="3.1254"/>
+        <n v="4.6871"/>
+        <n v="1.5628"/>
+        <n v="3.1246999999999998"/>
+        <n v="4.6877000000000004"/>
+        <n v="4.6875999999999998"/>
+        <n v="3.1252"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="73">
+  <r>
+    <x v="0"/>
+    <n v="0.1"/>
+    <n v="10000"/>
+    <n v="31250"/>
+    <n v="3.125"/>
+    <n v="126271"/>
+    <n v="417"/>
+    <n v="116688"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15625"/>
+    <n v="1.5625"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="0.2"/>
+    <n v="10000"/>
+    <n v="15627"/>
+    <n v="1.5627"/>
+    <n v="62233"/>
+    <n v="773"/>
+    <n v="53006"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="0.3"/>
+    <n v="10000"/>
+    <n v="31251"/>
+    <n v="3.1251000000000002"/>
+    <n v="62233"/>
+    <n v="773"/>
+    <n v="53006"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="0.4"/>
+    <n v="10000"/>
+    <n v="46875"/>
+    <n v="4.6875"/>
+    <n v="26267"/>
+    <n v="1677"/>
+    <n v="17944"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="31251"/>
+    <n v="3.1251000000000002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="0.5"/>
+    <n v="10000"/>
+    <n v="46877"/>
+    <n v="4.6877000000000004"/>
+    <n v="26267"/>
+    <n v="1677"/>
+    <n v="17944"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="0.6"/>
+    <n v="10000"/>
+    <n v="31252"/>
+    <n v="3.1252"/>
+    <n v="30727"/>
+    <n v="1456"/>
+    <n v="22183"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="31250"/>
+    <n v="3.125"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="0.7"/>
+    <n v="10000"/>
+    <n v="62501"/>
+    <n v="6.2500999999999998"/>
+    <n v="15173"/>
+    <n v="2627"/>
+    <n v="7800"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <n v="1.5626"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="0.8"/>
+    <n v="10000"/>
+    <n v="15625"/>
+    <n v="1.5625"/>
+    <n v="15173"/>
+    <n v="2627"/>
+    <n v="7800"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="0.9"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <n v="1.5626"/>
+    <n v="15173"/>
+    <n v="2627"/>
+    <n v="7800"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0.1"/>
+    <n v="10000"/>
+    <n v="15625"/>
+    <n v="1.5625"/>
+    <n v="126271"/>
+    <n v="1848"/>
+    <n v="118119"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0.2"/>
+    <n v="10000"/>
+    <n v="46878"/>
+    <n v="4.6878000000000002"/>
+    <n v="62233"/>
+    <n v="1848"/>
+    <n v="54081"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0.3"/>
+    <n v="10000"/>
+    <n v="46878"/>
+    <n v="4.6878000000000002"/>
+    <n v="62233"/>
+    <n v="1848"/>
+    <n v="54081"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0.4"/>
+    <n v="10000"/>
+    <n v="15622"/>
+    <n v="1.5622"/>
+    <n v="26267"/>
+    <n v="1859"/>
+    <n v="18126"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0.5"/>
+    <n v="10000"/>
+    <n v="31254"/>
+    <n v="3.1254"/>
+    <n v="26267"/>
+    <n v="1859"/>
+    <n v="18126"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0.6"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="30727"/>
+    <n v="1848"/>
+    <n v="22575"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="31251"/>
+    <n v="3.1251000000000002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0.7"/>
+    <n v="10000"/>
+    <n v="46878"/>
+    <n v="4.6878000000000002"/>
+    <n v="15173"/>
+    <n v="2632"/>
+    <n v="7805"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15625"/>
+    <n v="1.5625"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0.8"/>
+    <n v="10000"/>
+    <n v="31251"/>
+    <n v="3.1251000000000002"/>
+    <n v="15173"/>
+    <n v="2632"/>
+    <n v="7805"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0.9"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="15173"/>
+    <n v="2632"/>
+    <n v="7805"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <n v="1.5626"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0.1"/>
+    <n v="10000"/>
+    <n v="15627"/>
+    <n v="1.5627"/>
+    <n v="126271"/>
+    <n v="358"/>
+    <n v="116629"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15624"/>
+    <n v="1.5624"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0.2"/>
+    <n v="10000"/>
+    <n v="31249"/>
+    <n v="3.1248999999999998"/>
+    <n v="62233"/>
+    <n v="765"/>
+    <n v="52998"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0.3"/>
+    <n v="10000"/>
+    <n v="15625"/>
+    <n v="1.5625"/>
+    <n v="62233"/>
+    <n v="765"/>
+    <n v="52998"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="31250"/>
+    <n v="3.125"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0.4"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="26267"/>
+    <n v="1718"/>
+    <n v="17985"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15625"/>
+    <n v="1.5625"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0.5"/>
+    <n v="10000"/>
+    <n v="15625"/>
+    <n v="1.5625"/>
+    <n v="26267"/>
+    <n v="1718"/>
+    <n v="17985"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0.6"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <n v="1.5626"/>
+    <n v="30727"/>
+    <n v="1452"/>
+    <n v="22179"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="31250"/>
+    <n v="3.125"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0.7"/>
+    <n v="10000"/>
+    <n v="31250"/>
+    <n v="3.125"/>
+    <n v="15173"/>
+    <n v="2691"/>
+    <n v="7864"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15621"/>
+    <n v="1.5621"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0.8"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="15173"/>
+    <n v="2691"/>
+    <n v="7864"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="31249"/>
+    <n v="3.1248999999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0.9"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <n v="1.5626"/>
+    <n v="15173"/>
+    <n v="2691"/>
+    <n v="7864"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0.1"/>
+    <n v="10000"/>
+    <n v="15625"/>
+    <n v="1.5625"/>
+    <n v="126271"/>
+    <n v="362"/>
+    <n v="116633"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0.2"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <n v="1.5626"/>
+    <n v="62233"/>
+    <n v="774"/>
+    <n v="53007"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0.3"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="62233"/>
+    <n v="774"/>
+    <n v="53007"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0.4"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <n v="1.5626"/>
+    <n v="26267"/>
+    <n v="1678"/>
+    <n v="17945"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0.5"/>
+    <n v="10000"/>
+    <n v="46877"/>
+    <n v="4.6877000000000004"/>
+    <n v="26267"/>
+    <n v="1678"/>
+    <n v="17945"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0.6"/>
+    <n v="10000"/>
+    <n v="15625"/>
+    <n v="1.5625"/>
+    <n v="30727"/>
+    <n v="1452"/>
+    <n v="22179"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0.7"/>
+    <n v="10000"/>
+    <n v="31246"/>
+    <n v="3.1246"/>
+    <n v="15173"/>
+    <n v="2708"/>
+    <n v="7881"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0.8"/>
+    <n v="10000"/>
+    <n v="46876"/>
+    <n v="4.6875999999999998"/>
+    <n v="15173"/>
+    <n v="2708"/>
+    <n v="7881"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0.9"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <n v="1.5626"/>
+    <n v="15173"/>
+    <n v="2708"/>
+    <n v="7881"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.1"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="126271"/>
+    <n v="397"/>
+    <n v="116668"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.2"/>
+    <n v="10000"/>
+    <n v="15623"/>
+    <n v="1.5623"/>
+    <n v="62233"/>
+    <n v="795"/>
+    <n v="53028"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.3"/>
+    <n v="10000"/>
+    <n v="15627"/>
+    <n v="1.5627"/>
+    <n v="62233"/>
+    <n v="795"/>
+    <n v="53028"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.4"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="26267"/>
+    <n v="1730"/>
+    <n v="17997"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15624"/>
+    <n v="1.5624"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.5"/>
+    <n v="10000"/>
+    <n v="31251"/>
+    <n v="3.1251000000000002"/>
+    <n v="26267"/>
+    <n v="1730"/>
+    <n v="17997"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="31254"/>
+    <n v="3.1254"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.6"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="30727"/>
+    <n v="1488"/>
+    <n v="22215"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.7"/>
+    <n v="10000"/>
+    <n v="15628"/>
+    <n v="1.5628"/>
+    <n v="15173"/>
+    <n v="2743"/>
+    <n v="7916"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.8"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="15173"/>
+    <n v="2743"/>
+    <n v="7916"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="46871"/>
+    <n v="4.6871"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.9"/>
+    <n v="10000"/>
+    <n v="46877"/>
+    <n v="4.6877000000000004"/>
+    <n v="15173"/>
+    <n v="2743"/>
+    <n v="7916"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0.1"/>
+    <n v="10000"/>
+    <n v="31251"/>
+    <n v="3.1251000000000002"/>
+    <n v="126271"/>
+    <n v="374"/>
+    <n v="116645"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0.2"/>
+    <n v="10000"/>
+    <n v="15627"/>
+    <n v="1.5627"/>
+    <n v="62233"/>
+    <n v="759"/>
+    <n v="52992"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0.3"/>
+    <n v="10000"/>
+    <n v="15625"/>
+    <n v="1.5625"/>
+    <n v="62233"/>
+    <n v="759"/>
+    <n v="52992"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15624"/>
+    <n v="1.5624"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0.4"/>
+    <n v="10000"/>
+    <n v="15625"/>
+    <n v="1.5625"/>
+    <n v="26267"/>
+    <n v="1690"/>
+    <n v="17957"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0.5"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="26267"/>
+    <n v="1690"/>
+    <n v="17957"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0.6"/>
+    <n v="10000"/>
+    <n v="31249"/>
+    <n v="3.1248999999999998"/>
+    <n v="30727"/>
+    <n v="1449"/>
+    <n v="22176"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0.7"/>
+    <n v="10000"/>
+    <n v="31252"/>
+    <n v="3.1252"/>
+    <n v="15173"/>
+    <n v="2660"/>
+    <n v="7833"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <n v="1.5626"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0.8"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="15173"/>
+    <n v="2660"/>
+    <n v="7833"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <n v="1.5626"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0.9"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="15173"/>
+    <n v="2660"/>
+    <n v="7833"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0.1"/>
+    <n v="10000"/>
+    <n v="31251"/>
+    <n v="3.1251000000000002"/>
+    <n v="126271"/>
+    <n v="387"/>
+    <n v="116658"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15628"/>
+    <n v="1.5628"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0.2"/>
+    <n v="10000"/>
+    <n v="31255"/>
+    <n v="3.1255000000000002"/>
+    <n v="62233"/>
+    <n v="735"/>
+    <n v="52968"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0.3"/>
+    <n v="10000"/>
+    <n v="15624"/>
+    <n v="1.5624"/>
+    <n v="62233"/>
+    <n v="735"/>
+    <n v="52968"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <n v="1.5626"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0.4"/>
+    <n v="10000"/>
+    <n v="15627"/>
+    <n v="1.5627"/>
+    <n v="26267"/>
+    <n v="1678"/>
+    <n v="17945"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="31247"/>
+    <n v="3.1246999999999998"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0.5"/>
+    <n v="10000"/>
+    <n v="31252"/>
+    <n v="3.1252"/>
+    <n v="26267"/>
+    <n v="1678"/>
+    <n v="17945"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="31251"/>
+    <n v="3.1251000000000002"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0.6"/>
+    <n v="10000"/>
+    <n v="31251"/>
+    <n v="3.1251000000000002"/>
+    <n v="30727"/>
+    <n v="1448"/>
+    <n v="22175"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0.7"/>
+    <n v="10000"/>
+    <n v="15625"/>
+    <n v="1.5625"/>
+    <n v="15173"/>
+    <n v="2652"/>
+    <n v="7825"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0.8"/>
+    <n v="10000"/>
+    <n v="15608"/>
+    <n v="1.5608"/>
+    <n v="15173"/>
+    <n v="2652"/>
+    <n v="7825"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <n v="1.5626"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0.9"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="15173"/>
+    <n v="2652"/>
+    <n v="7825"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0.1"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="126271"/>
+    <n v="398"/>
+    <n v="116669"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="46877"/>
+    <n v="4.6877000000000004"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0.2"/>
+    <n v="10000"/>
+    <n v="46877"/>
+    <n v="4.6877000000000004"/>
+    <n v="62233"/>
+    <n v="789"/>
+    <n v="53022"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="31249"/>
+    <n v="3.1248999999999998"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0.3"/>
+    <n v="10000"/>
+    <n v="15592"/>
+    <n v="1.5591999999999999"/>
+    <n v="62233"/>
+    <n v="789"/>
+    <n v="53022"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="46877"/>
+    <n v="4.6877000000000004"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0.4"/>
+    <n v="10000"/>
+    <n v="46880"/>
+    <n v="4.6879999999999997"/>
+    <n v="26267"/>
+    <n v="1637"/>
+    <n v="17904"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <n v="1.5626"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0.5"/>
+    <n v="10000"/>
+    <n v="31247"/>
+    <n v="3.1246999999999998"/>
+    <n v="26267"/>
+    <n v="1637"/>
+    <n v="17904"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="46876"/>
+    <n v="4.6875999999999998"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0.6"/>
+    <n v="10000"/>
+    <n v="31252"/>
+    <n v="3.1252"/>
+    <n v="30727"/>
+    <n v="1461"/>
+    <n v="22188"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <n v="1.5626"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0.7"/>
+    <n v="10000"/>
+    <n v="31247"/>
+    <n v="3.1246999999999998"/>
+    <n v="15173"/>
+    <n v="2763"/>
+    <n v="7936"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <n v="1.5626"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0.8"/>
+    <n v="10000"/>
+    <n v="31251"/>
+    <n v="3.1251000000000002"/>
+    <n v="15173"/>
+    <n v="2763"/>
+    <n v="7936"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15625"/>
+    <n v="1.5625"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0.9"/>
+    <n v="10000"/>
+    <n v="46877"/>
+    <n v="4.6877000000000004"/>
+    <n v="15173"/>
+    <n v="2763"/>
+    <n v="7936"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="31252"/>
+    <n v="3.1252"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="73">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="10000"/>
+    <n v="31250"/>
+    <n v="3.125"/>
+    <n v="126271"/>
+    <n v="417"/>
+    <n v="116688"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15625"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="10000"/>
+    <n v="15627"/>
+    <n v="1.5627"/>
+    <n v="62233"/>
+    <n v="773"/>
+    <n v="53006"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="10000"/>
+    <n v="31251"/>
+    <n v="3.1251000000000002"/>
+    <n v="62233"/>
+    <n v="773"/>
+    <n v="53006"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="10000"/>
+    <n v="46875"/>
+    <n v="4.6875"/>
+    <n v="26267"/>
+    <n v="1677"/>
+    <n v="17944"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="31251"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="10000"/>
+    <n v="46877"/>
+    <n v="4.6877000000000004"/>
+    <n v="26267"/>
+    <n v="1677"/>
+    <n v="17944"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="10000"/>
+    <n v="31252"/>
+    <n v="3.1252"/>
+    <n v="30727"/>
+    <n v="1456"/>
+    <n v="22183"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="31250"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="10000"/>
+    <n v="62501"/>
+    <n v="6.2500999999999998"/>
+    <n v="15173"/>
+    <n v="2627"/>
+    <n v="7800"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="10000"/>
+    <n v="15625"/>
+    <n v="1.5625"/>
+    <n v="15173"/>
+    <n v="2627"/>
+    <n v="7800"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <n v="1.5626"/>
+    <n v="15173"/>
+    <n v="2627"/>
+    <n v="7800"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="10000"/>
+    <n v="15625"/>
+    <n v="1.5625"/>
+    <n v="126271"/>
+    <n v="1848"/>
+    <n v="118119"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="10000"/>
+    <n v="46878"/>
+    <n v="4.6878000000000002"/>
+    <n v="62233"/>
+    <n v="1848"/>
+    <n v="54081"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="10000"/>
+    <n v="46878"/>
+    <n v="4.6878000000000002"/>
+    <n v="62233"/>
+    <n v="1848"/>
+    <n v="54081"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="10000"/>
+    <n v="15622"/>
+    <n v="1.5622"/>
+    <n v="26267"/>
+    <n v="1859"/>
+    <n v="18126"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="10000"/>
+    <n v="31254"/>
+    <n v="3.1254"/>
+    <n v="26267"/>
+    <n v="1859"/>
+    <n v="18126"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="30727"/>
+    <n v="1848"/>
+    <n v="22575"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="31251"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="10000"/>
+    <n v="46878"/>
+    <n v="4.6878000000000002"/>
+    <n v="15173"/>
+    <n v="2632"/>
+    <n v="7805"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15625"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="10000"/>
+    <n v="31251"/>
+    <n v="3.1251000000000002"/>
+    <n v="15173"/>
+    <n v="2632"/>
+    <n v="7805"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="15173"/>
+    <n v="2632"/>
+    <n v="7805"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="10000"/>
+    <n v="15627"/>
+    <n v="1.5627"/>
+    <n v="126271"/>
+    <n v="358"/>
+    <n v="116629"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15624"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="10000"/>
+    <n v="31249"/>
+    <n v="3.1248999999999998"/>
+    <n v="62233"/>
+    <n v="765"/>
+    <n v="52998"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="10000"/>
+    <n v="15625"/>
+    <n v="1.5625"/>
+    <n v="62233"/>
+    <n v="765"/>
+    <n v="52998"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="31250"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="26267"/>
+    <n v="1718"/>
+    <n v="17985"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15625"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="10000"/>
+    <n v="15625"/>
+    <n v="1.5625"/>
+    <n v="26267"/>
+    <n v="1718"/>
+    <n v="17985"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <n v="1.5626"/>
+    <n v="30727"/>
+    <n v="1452"/>
+    <n v="22179"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="31250"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="10000"/>
+    <n v="31250"/>
+    <n v="3.125"/>
+    <n v="15173"/>
+    <n v="2691"/>
+    <n v="7864"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15621"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="15173"/>
+    <n v="2691"/>
+    <n v="7864"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="31249"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <n v="1.5626"/>
+    <n v="15173"/>
+    <n v="2691"/>
+    <n v="7864"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="10000"/>
+    <n v="15625"/>
+    <n v="1.5625"/>
+    <n v="126271"/>
+    <n v="362"/>
+    <n v="116633"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <n v="1.5626"/>
+    <n v="62233"/>
+    <n v="774"/>
+    <n v="53007"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="62233"/>
+    <n v="774"/>
+    <n v="53007"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <n v="1.5626"/>
+    <n v="26267"/>
+    <n v="1678"/>
+    <n v="17945"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="10000"/>
+    <n v="46877"/>
+    <n v="4.6877000000000004"/>
+    <n v="26267"/>
+    <n v="1678"/>
+    <n v="17945"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="10000"/>
+    <n v="15625"/>
+    <n v="1.5625"/>
+    <n v="30727"/>
+    <n v="1452"/>
+    <n v="22179"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="10000"/>
+    <n v="31246"/>
+    <n v="3.1246"/>
+    <n v="15173"/>
+    <n v="2708"/>
+    <n v="7881"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="10000"/>
+    <n v="46876"/>
+    <n v="4.6875999999999998"/>
+    <n v="15173"/>
+    <n v="2708"/>
+    <n v="7881"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <n v="1.5626"/>
+    <n v="15173"/>
+    <n v="2708"/>
+    <n v="7881"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="126271"/>
+    <n v="397"/>
+    <n v="116668"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="10000"/>
+    <n v="15623"/>
+    <n v="1.5623"/>
+    <n v="62233"/>
+    <n v="795"/>
+    <n v="53028"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="10000"/>
+    <n v="15627"/>
+    <n v="1.5627"/>
+    <n v="62233"/>
+    <n v="795"/>
+    <n v="53028"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="26267"/>
+    <n v="1730"/>
+    <n v="17997"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15624"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="10000"/>
+    <n v="31251"/>
+    <n v="3.1251000000000002"/>
+    <n v="26267"/>
+    <n v="1730"/>
+    <n v="17997"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="31254"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="30727"/>
+    <n v="1488"/>
+    <n v="22215"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="6"/>
+    <n v="10000"/>
+    <n v="15628"/>
+    <n v="1.5628"/>
+    <n v="15173"/>
+    <n v="2743"/>
+    <n v="7916"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="7"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="15173"/>
+    <n v="2743"/>
+    <n v="7916"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="46871"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="8"/>
+    <n v="10000"/>
+    <n v="46877"/>
+    <n v="4.6877000000000004"/>
+    <n v="15173"/>
+    <n v="2743"/>
+    <n v="7916"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="10000"/>
+    <n v="31251"/>
+    <n v="3.1251000000000002"/>
+    <n v="126271"/>
+    <n v="374"/>
+    <n v="116645"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="10000"/>
+    <n v="15627"/>
+    <n v="1.5627"/>
+    <n v="62233"/>
+    <n v="759"/>
+    <n v="52992"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="10000"/>
+    <n v="15625"/>
+    <n v="1.5625"/>
+    <n v="62233"/>
+    <n v="759"/>
+    <n v="52992"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15624"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="10000"/>
+    <n v="15625"/>
+    <n v="1.5625"/>
+    <n v="26267"/>
+    <n v="1690"/>
+    <n v="17957"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="26267"/>
+    <n v="1690"/>
+    <n v="17957"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="10000"/>
+    <n v="31249"/>
+    <n v="3.1248999999999998"/>
+    <n v="30727"/>
+    <n v="1449"/>
+    <n v="22176"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="6"/>
+    <n v="10000"/>
+    <n v="31252"/>
+    <n v="3.1252"/>
+    <n v="15173"/>
+    <n v="2660"/>
+    <n v="7833"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="7"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="15173"/>
+    <n v="2660"/>
+    <n v="7833"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="8"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="15173"/>
+    <n v="2660"/>
+    <n v="7833"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="10000"/>
+    <n v="31251"/>
+    <n v="3.1251000000000002"/>
+    <n v="126271"/>
+    <n v="387"/>
+    <n v="116658"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15628"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="10000"/>
+    <n v="31255"/>
+    <n v="3.1255000000000002"/>
+    <n v="62233"/>
+    <n v="735"/>
+    <n v="52968"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="10000"/>
+    <n v="15624"/>
+    <n v="1.5624"/>
+    <n v="62233"/>
+    <n v="735"/>
+    <n v="52968"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="10000"/>
+    <n v="15627"/>
+    <n v="1.5627"/>
+    <n v="26267"/>
+    <n v="1678"/>
+    <n v="17945"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="31247"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="10000"/>
+    <n v="31252"/>
+    <n v="3.1252"/>
+    <n v="26267"/>
+    <n v="1678"/>
+    <n v="17945"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="31251"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <n v="10000"/>
+    <n v="31251"/>
+    <n v="3.1251000000000002"/>
+    <n v="30727"/>
+    <n v="1448"/>
+    <n v="22175"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="10000"/>
+    <n v="15625"/>
+    <n v="1.5625"/>
+    <n v="15173"/>
+    <n v="2652"/>
+    <n v="7825"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="7"/>
+    <n v="10000"/>
+    <n v="15608"/>
+    <n v="1.5608"/>
+    <n v="15173"/>
+    <n v="2652"/>
+    <n v="7825"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="8"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="15173"/>
+    <n v="2652"/>
+    <n v="7825"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="10000"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="126271"/>
+    <n v="398"/>
+    <n v="116669"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="46877"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="10000"/>
+    <n v="46877"/>
+    <n v="4.6877000000000004"/>
+    <n v="62233"/>
+    <n v="789"/>
+    <n v="53022"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="31249"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="10000"/>
+    <n v="15592"/>
+    <n v="1.5591999999999999"/>
+    <n v="62233"/>
+    <n v="789"/>
+    <n v="53022"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="46877"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="10000"/>
+    <n v="46880"/>
+    <n v="4.6879999999999997"/>
+    <n v="26267"/>
+    <n v="1637"/>
+    <n v="17904"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <n v="10000"/>
+    <n v="31247"/>
+    <n v="3.1246999999999998"/>
+    <n v="26267"/>
+    <n v="1637"/>
+    <n v="17904"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="46876"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="5"/>
+    <n v="10000"/>
+    <n v="31252"/>
+    <n v="3.1252"/>
+    <n v="30727"/>
+    <n v="1461"/>
+    <n v="22188"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="6"/>
+    <n v="10000"/>
+    <n v="31247"/>
+    <n v="3.1246999999999998"/>
+    <n v="15173"/>
+    <n v="2763"/>
+    <n v="7936"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15626"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="10000"/>
+    <n v="31251"/>
+    <n v="3.1251000000000002"/>
+    <n v="15173"/>
+    <n v="2763"/>
+    <n v="7936"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="15625"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="8"/>
+    <n v="10000"/>
+    <n v="46877"/>
+    <n v="4.6877000000000004"/>
+    <n v="15173"/>
+    <n v="2763"/>
+    <n v="7936"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="10000"/>
+    <n v="10000"/>
+    <n v="31252"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="15"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{54CD5145-C14D-49DC-B275-7CAE33509286}" name="Tableau croisé dynamique7" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Somme de search average" fld="13" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8C575E63-583B-4DBC-90FF-D75AF40E2D0D}" name="Tableau croisé dynamique20" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A1:C10" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="14">
+    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item x="7"/>
+        <item h="1" x="8"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <items count="16">
+        <item x="1"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="15"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="7"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Somme de search average" fld="13" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27C47328-AE71-4627-BA6A-8FB45E9DCC96}" name="Tableau1" displayName="Tableau1" ref="A1:N74" totalsRowShown="0">
+  <autoFilter ref="A1:N74" xr:uid="{484B63B4-0321-4027-8D6F-6BDE81BA8147}"/>
+  <sortState ref="A2:N74">
+    <sortCondition ref="A1:A74"/>
+  </sortState>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{E09DEAD2-9F1F-49B9-92B1-0813C39959FF}" name="NomFichier"/>
+    <tableColumn id="2" xr3:uid="{09E9C564-EC8D-4391-92CB-BBAF6A9608FD}" name="MaxLoadFactor"/>
+    <tableColumn id="3" xr3:uid="{88CB7CC6-478F-497C-9F04-7E7BC7DCFD8B}" name="insertins total"/>
+    <tableColumn id="4" xr3:uid="{07949FF3-1520-40AA-ABB7-C369644ED684}" name="insertion duration total"/>
+    <tableColumn id="5" xr3:uid="{A87B265F-6D6B-4E3D-AC0A-DD2009D6E2B8}" name="insertion duration average"/>
+    <tableColumn id="6" xr3:uid="{C1C344A6-E739-4894-A674-6B7B7B894A76}" name="buckets"/>
+    <tableColumn id="7" xr3:uid="{6EDF2BCA-A4CE-4F4C-9F1E-88CE541B6B29}" name="collision"/>
+    <tableColumn id="8" xr3:uid="{144A4E2E-9F90-4B0C-88D1-A8C62C1A4B75}" name="empty buckets"/>
+    <tableColumn id="9" xr3:uid="{21F8F316-2B1C-4116-B65B-390E1AF1309A}" name="largest buckets"/>
+    <tableColumn id="10" xr3:uid="{577FC643-C191-4210-B7DD-9CB0C0825C74}" name="smallest bucket"/>
+    <tableColumn id="11" xr3:uid="{33A2C912-CB9D-4B24-AFF9-B4992F41EA59}" name="search total"/>
+    <tableColumn id="12" xr3:uid="{2E1291A0-4615-41AC-BBAE-9220D8894590}" name="found total"/>
+    <tableColumn id="13" xr3:uid="{F3F2CD60-9386-4CC5-9AA2-EA3F26276B45}" name="search duration"/>
+    <tableColumn id="14" xr3:uid="{F5E0AC52-996F-43D7-AAF1-1B02630F451E}" name="search average"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1938,73 +5943,302 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E914A1A0-B620-4A5D-94B9-DF747075345F}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>9.3751999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6.2501999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>14.061900000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>9.3749000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4.6875999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>10.937799999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>26.563399999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A1D4E0-6B28-448A-B5FB-5E5889D4EDF9}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" activeCellId="2" sqref="D1:D10 A1:A9 A9:A10"/>
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.6877000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.1248999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4.6877000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.5626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.6875999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.5626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.5626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>0.8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>0.9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3.1252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" activeCellId="1" sqref="A1:B1048576 N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>21</v>
-      </c>
-      <c r="N1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -5175,58 +9409,11 @@
         <v>3.1252</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>10000</v>
-      </c>
-      <c r="D74">
-        <v>31245</v>
-      </c>
-      <c r="E74">
-        <v>3.1244999999999998</v>
-      </c>
-      <c r="F74">
-        <v>15173</v>
-      </c>
-      <c r="G74">
-        <v>6342</v>
-      </c>
-      <c r="H74">
-        <v>11515</v>
-      </c>
-      <c r="I74">
-        <v>15</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>10000</v>
-      </c>
-      <c r="L74">
-        <v>10000</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:A74">
-    <sortState ref="A3:N74">
-      <sortCondition ref="A2:A74"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>